--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Tabbar_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Tabbar_JS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -540,18 +540,11 @@
     <t>wait(3);
 SetStartPage(http://127.0.0.1:8082/app/);</t>
   </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -977,17 +970,17 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="36.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="37.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="6.02265625" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="37.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="35.25" thickBot="1">
@@ -1049,9 +1042,7 @@
       <c r="I2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="180.75" thickBot="1">
@@ -1078,9 +1069,7 @@
         <v>31</v>
       </c>
       <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="180.75" thickBot="1">
@@ -1107,9 +1096,7 @@
         <v>33</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="270.75" thickBot="1">

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Tabbar_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Tabbar_JS.xlsx
@@ -344,6 +344,110 @@
 </t>
   </si>
   <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Native Tabbar JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0576
+};
+validate4
+{
+validate_Screenshot=VT200_0578_before
+};
+validate5
+{
+validate_Text_Exists=VT200-0578
+};
+validate6
+{
+validate_Screenshot=VT200_0578
+};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Native Tabbar JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0576
+};
+validate4
+{
+validate_Screenshot=VT200_0595_before
+};
+validate5
+{
+validate_Text_Exists=VT200-0595
+};
+validate6
+{
+validate_Screenshot=VT200_0595
+};
+</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Native Tabbar JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0576
+};
+validate4
+{
+validate_Screenshot=VT200_0596_before
+};
+validate5
+{
+validate_Text_Exists=VT200-0596
+};
+validate6
+{
+validate_Screenshot=VT200_0596
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Native Tabbar JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0585
+};
+validate4
+{
+validate_Screenshot=VT200_0585
+};</t>
+  </si>
+  <si>
+    <t>Change Start page</t>
+  </si>
+  <si>
+    <t>wait(3);
+SetStartPage(http://127.0.0.1:8082/app/);</t>
+  </si>
+  <si>
     <t>wait(5);
 validate1;
 link_Click(tabbar_test_link);
@@ -357,7 +461,7 @@
 validate4;
 SwitchApp(NATIVE_APP);
 wait(2);
-link_Click(VT200_0576_mainpage_xpath);
+ClickNativeIcon(VT200_0576_mainpage_xpath);
 wait(2);
 SwitchApp(WEBVIEW);
 SelectTestToRun(VT200_0578_string);
@@ -367,32 +471,6 @@
 wait(5);
 TakeNativeScreenshot(VT200_0578);
 validate6;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Native Tabbar JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0576
-};
-validate4
-{
-validate_Screenshot=VT200_0578_before
-};
-validate5
-{
-validate_Text_Exists=VT200-0578
-};
-validate6
-{
-validate_Screenshot=VT200_0578
-};</t>
   </si>
   <si>
     <t xml:space="preserve">wait(5);
@@ -408,7 +486,7 @@
 validate4;
 SwitchApp(NATIVE_APP);
 wait(2);
-link_Click(VT200_0576_mainpage_xpath);
+ClickNativeIcon(VT200_0576_mainpage_xpath);
 wait(2);
 SwitchApp(WEBVIEW);
 SelectTestToRun(VT200_0595_string);
@@ -418,33 +496,6 @@
 wait(5);
 TakeNativeScreenshot(VT200_0595);
 validate6;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Native Tabbar JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0576
-};
-validate4
-{
-validate_Screenshot=VT200_0595_before
-};
-validate5
-{
-validate_Text_Exists=VT200-0595
-};
-validate6
-{
-validate_Screenshot=VT200_0595
-};
 </t>
   </si>
   <si>
@@ -461,7 +512,7 @@
 validate4;
 SwitchApp(NATIVE_APP);
 wait(2);
-link_Click(VT200_0576_mainpage_xpath);
+ClickNativeIcon(VT200_0576_mainpage_xpath);
 wait(2);
 SwitchApp(WEBVIEW);
 SelectTestToRun(VT200_0596_string);
@@ -471,50 +522,6 @@
 wait(5);
 TakeNativeScreenshot(VT200_0596);
 validate6;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Native Tabbar JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0576
-};
-validate4
-{
-validate_Screenshot=VT200_0596_before
-};
-validate5
-{
-validate_Text_Exists=VT200-0596
-};
-validate6
-{
-validate_Screenshot=VT200_0596
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Native Tabbar JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0585
-};
-validate4
-{
-validate_Screenshot=VT200_0585
-};</t>
   </si>
   <si>
     <t>wait(5);
@@ -530,15 +537,8 @@
 validate4;
 SwitchApp(NATIVE_APP);
 wait(2);
-link_Click(VT200_0585_page1_xpath);
+ClickNativeIcon(VT200_0585_page1_xpath);
 CheckUITextContains(1);</t>
-  </si>
-  <si>
-    <t>Change Start page</t>
-  </si>
-  <si>
-    <t>wait(3);
-SetStartPage(http://127.0.0.1:8082/app/);</t>
   </si>
 </sst>
 </file>
@@ -970,7 +970,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1030,13 +1030,13 @@
         <v>10</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="2" t="s">
@@ -1117,10 +1117,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1171,10 +1171,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1198,10 +1198,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1306,10 +1306,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Tabbar_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Tabbar_JS.xlsx
@@ -442,10 +442,6 @@
   </si>
   <si>
     <t>Change Start page</t>
-  </si>
-  <si>
-    <t>wait(3);
-SetStartPage(http://127.0.0.1:8082/app/);</t>
   </si>
   <si>
     <t>wait(5);
@@ -539,6 +535,18 @@
 wait(2);
 ClickNativeIcon(VT200_0585_page1_xpath);
 CheckUITextContains(1);</t>
+  </si>
+  <si>
+    <t>wait(3);
+PullConfigxml;
+ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
+ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;);
+ChangeConfigxml(Configuration/WebServer,Enabled,&lt;Enabled VALUE="1"/&gt;);
+ChangeConfigxml(Configuration/WebServer,Port,&lt;Port VALUE="8082"/&gt;);
+ChangeConfigxml(Configuration/WebServer,WebFolder,&lt;WebFolder VALUE="\\auto\\ComplianceTest_JS\"/&gt;);
+ChangeConfigxml(Configuration/WebServer,Public,&lt;Public VALUE="1"/&gt;);
+ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="0"/&gt;);
+PushConfigxml;</t>
   </si>
 </sst>
 </file>
@@ -970,7 +978,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1016,7 +1024,7 @@
       </c>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="43.5" thickBot="1">
+    <row r="2" spans="1:11" ht="255.75" thickBot="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1036,7 +1044,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="2" t="s">
@@ -1117,7 +1125,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>41</v>
@@ -1171,7 +1179,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>42</v>
@@ -1198,7 +1206,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>43</v>
@@ -1306,7 +1314,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>44</v>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Tabbar_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Tabbar_JS.xlsx
@@ -540,11 +540,7 @@
     <t>wait(3);
 PullConfigxml;
 ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
-ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;);
-ChangeConfigxml(Configuration/WebServer,Enabled,&lt;Enabled VALUE="1"/&gt;);
-ChangeConfigxml(Configuration/WebServer,Port,&lt;Port VALUE="8082"/&gt;);
-ChangeConfigxml(Configuration/WebServer,WebFolder,&lt;WebFolder VALUE="\\auto\\ComplianceTest_JS\"/&gt;);
-ChangeConfigxml(Configuration/WebServer,Public,&lt;Public VALUE="1"/&gt;);
+ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\ComplianceTest_JS\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
 ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="0"/&gt;);
 PushConfigxml;</t>
   </si>
@@ -1024,7 +1020,7 @@
       </c>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="255.75" thickBot="1">
+    <row r="2" spans="1:11" ht="204.75" thickBot="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Tabbar_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Tabbar_JS.xlsx
@@ -448,6 +448,31 @@
 validate1;
 link_Click(tabbar_test_link);
 validate2;
+SelectTestToRun(VT200_0585_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+TakeScreenshot(VT200_0585);
+validate4;
+SwitchApp(NATIVE_APP);
+wait(2);
+ClickNativeIcon(VT200_0585_page1_xpath);
+CheckUITextContains(1);</t>
+  </si>
+  <si>
+    <t>wait(3);
+PullConfigxml;
+ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
+ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\ComplianceTest_JS\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
+ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="0"/&gt;);
+PushConfigxml;</t>
+  </si>
+  <si>
+    <t>wait(5);
+validate1;
+link_Click(tabbar_test_link);
+validate2;
 SelectTestToRun(VT200_0576_string);
 ClickRunTest(runtest_top_xpath);
 validate3;
@@ -465,7 +490,7 @@
 validate5;
 ClickRunTest(runtest_bottom_xpath);
 wait(5);
-TakeNativeScreenshot(VT200_0578);
+TakeScreenshot(VT200_0578);
 validate6;</t>
   </si>
   <si>
@@ -490,7 +515,7 @@
 validate5;
 ClickRunTest(runtest_bottom_xpath);
 wait(5);
-TakeNativeScreenshot(VT200_0595);
+TakeScreenshot(VT200_0595);
 validate6;
 </t>
   </si>
@@ -516,33 +541,8 @@
 validate5;
 ClickRunTest(runtest_bottom_xpath);
 wait(5);
-TakeNativeScreenshot(VT200_0596);
+TakeScreenshot(VT200_0596);
 validate6;</t>
-  </si>
-  <si>
-    <t>wait(5);
-validate1;
-link_Click(tabbar_test_link);
-validate2;
-SelectTestToRun(VT200_0585_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-TakeScreenshot(VT200_0585);
-validate4;
-SwitchApp(NATIVE_APP);
-wait(2);
-ClickNativeIcon(VT200_0585_page1_xpath);
-CheckUITextContains(1);</t>
-  </si>
-  <si>
-    <t>wait(3);
-PullConfigxml;
-ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
-ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\ComplianceTest_JS\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
-ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="0"/&gt;);
-PushConfigxml;</t>
   </si>
 </sst>
 </file>
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="2" t="s">
@@ -1121,7 +1121,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>41</v>
@@ -1175,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>42</v>
@@ -1202,7 +1202,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>43</v>
@@ -1310,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>44</v>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Tabbar_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Tabbar_JS.xlsx
@@ -344,32 +344,6 @@
 </t>
   </si>
   <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Native Tabbar JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0576
-};
-validate4
-{
-validate_Screenshot=VT200_0578_before
-};
-validate5
-{
-validate_Text_Exists=VT200-0578
-};
-validate6
-{
-validate_Screenshot=VT200_0578
-};</t>
-  </si>
-  <si>
     <t xml:space="preserve">validate1
 {
 validate_PageTitle=Compliance JS specs
@@ -467,31 +441,6 @@
 ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\ComplianceTest_JS\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
 ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="0"/&gt;);
 PushConfigxml;</t>
-  </si>
-  <si>
-    <t>wait(5);
-validate1;
-link_Click(tabbar_test_link);
-validate2;
-SelectTestToRun(VT200_0576_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-TakeScreenshot(VT200_0578_before);
-validate4;
-SwitchApp(NATIVE_APP);
-wait(2);
-ClickNativeIcon(VT200_0576_mainpage_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-SelectTestToRun(VT200_0578_string);
-ClickRunTest(runtest_top_xpath);
-validate5;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-TakeScreenshot(VT200_0578);
-validate6;</t>
   </si>
   <si>
     <t xml:space="preserve">wait(5);
@@ -543,6 +492,55 @@
 wait(5);
 TakeScreenshot(VT200_0596);
 validate6;</t>
+  </si>
+  <si>
+    <t>wait(5);
+validate1;
+link_Click(tabbar_test_link);
+validate2;
+SelectTestToRun(VT200_0576_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+validate4;
+SwitchApp(NATIVE_APP);
+wait(2);
+ClickNativeIcon(VT200_0576_mainpage_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+SelectTestToRun(VT200_0578_string);
+ClickRunTest(runtest_top_xpath);
+validate5;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+validate6;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Native Tabbar JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0576
+};
+validate4
+{
+validate_isIconDisplayed=tabbar_xpath,true
+};
+validate5
+{
+validate_Text_Exists=VT200-0578
+};
+validate6
+{
+validate_isIconDisplayed=tabbar_xpath,false
+};</t>
   </si>
 </sst>
 </file>
@@ -974,7 +972,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1034,13 +1032,13 @@
         <v>10</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="2" t="s">
@@ -1121,10 +1119,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1175,10 +1173,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1202,10 +1200,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1310,10 +1308,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
